--- a/biology/Botanique/Hexalobus_bussei/Hexalobus_bussei.xlsx
+++ b/biology/Botanique/Hexalobus_bussei/Hexalobus_bussei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hexalobus bussei est une plante endémique du Cameroun décrite par Friedrich Ludwig Diels. Elle porte également le nom Hexalobus megalophyllus Engl. &amp; Diels[2]. C'est une plante de la famille des Annonaceae et du genre Hexalobus[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hexalobus bussei est une plante endémique du Cameroun décrite par Friedrich Ludwig Diels. Elle porte également le nom Hexalobus megalophyllus Engl. &amp; Diels. C'est une plante de la famille des Annonaceae et du genre Hexalobus.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique bussei rend hommage au botaniste et explorateur allemand Walter Carl Otto Busse[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique bussei rend hommage au botaniste et explorateur allemand Walter Carl Otto Busse.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste à feuilles persistantes pouvant mesurer 20-30 cm de hauteur.
 </t>
@@ -573,9 +589,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est principalement connue dans le sud du Cameroun, aux environs de Kribi et Bipindi, principalement dans les forêts tropicales, forêts fluviales, vers 200 m. d'altitude[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est principalement connue dans le sud du Cameroun, aux environs de Kribi et Bipindi, principalement dans les forêts tropicales, forêts fluviales, vers 200 m. d'altitude.
 </t>
         </is>
       </c>
